--- a/xlsx/美国海军陆战队_intext.xlsx
+++ b/xlsx/美国海军陆战队_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="832">
   <si>
     <t>美国海军陆战队</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国海军陆战队</t>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊</t>
+    <t>海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/UH-1Y%E6%AF%92%E6%B6%B2%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>UH-1Y毒液直升機</t>
+    <t>UH-1Y毒液直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EA-6B</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/CH-53E%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-53E直升機</t>
+    <t>CH-53E直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AH-1Z</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E9%81%A0%E5%BF%A0%E8%AA%A0</t>
   </si>
   <si>
-    <t>永遠忠誠</t>
+    <t>永远忠诚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marines%27_Hymn</t>
@@ -131,43 +131,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波灣戰爭</t>
+    <t>波湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿富汗戰爭</t>
+    <t>阿富汗战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F%E5%8F%B8%E4%BB%A4</t>
@@ -185,25 +185,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>美利堅合眾國軍</t>
+    <t>美利坚合众国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E7%A7%8D</t>
@@ -215,31 +215,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8E</t>
   </si>
   <si>
-    <t>軍階</t>
+    <t>军阶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E5%A4%96%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國駐外機構列表</t>
+    <t>美国驻外机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E4%BD%BF%E9%A4%A8%E8%AD%A6%E8%A1%9B%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊使館警衛大隊</t>
+    <t>海军陆战队使馆警卫大队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
@@ -251,9 +251,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
   </si>
   <si>
-    <t>美国海军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
   </si>
   <si>
@@ -269,19 +266,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F</t>
   </si>
   <si>
-    <t>營</t>
+    <t>营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B3%95%E7%9F%AD%E6%9A%AB%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>美法短暫衝突</t>
+    <t>美法短暂冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%B7%B4%E9%87%8C%E6%88%98%E4%BA%89</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>1812年戰爭</t>
+    <t>1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%82%91%E5%85%8B%E9%81%9C</t>
   </si>
   <si>
-    <t>安德魯·傑克遜</t>
+    <t>安德鲁·杰克逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
   </si>
   <si>
-    <t>墨西哥灣</t>
+    <t>墨西哥湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B8%82</t>
@@ -335,25 +332,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E9%A6%AC%E7%B4%8D%E6%B2%99%E6%96%AF%E4%B9%8B%E5%BD%B9</t>
   </si>
   <si>
-    <t>第一次馬納沙斯之役</t>
+    <t>第一次马纳沙斯之役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太平洋戰爭</t>
+    <t>太平洋战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D%E5%A3%AB%E5%85%B5%E5%9C%A8%E7%A1%AB%E7%A3%BA%E5%B3%B6%E8%B1%8E%E8%B5%B7%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>美軍士兵在硫磺島豎起國旗</t>
+    <t>美军士兵在硫磺岛竖起国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E8%BE%BE%E5%B0%94%E5%8D%A1%E7%BA%B3%E5%B0%94%E5%B2%9B%E6%88%98%E5%BD%B9</t>
@@ -365,49 +362,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B9%B2%E7%B6%AD%E7%88%BE%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>布干維爾島戰役</t>
+    <t>布干维尔岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%8B%89%E7%93%A6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>塔拉瓦戰役</t>
+    <t>塔拉瓦战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6%E6%88%B0%E5%BD%B9_(1944%E5%B9%B4)</t>
   </si>
   <si>
-    <t>關島戰役 (1944年)</t>
+    <t>关岛战役 (1944年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%AF%A7%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>天寧島戰役</t>
+    <t>天宁岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%8F%AD%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>塞班島戰役</t>
+    <t>塞班岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6%E5%8F%8A%E5%B8%9B%E7%90%89%E6%88%B0%E4%BA%8B</t>
   </si>
   <si>
-    <t>馬里亞納群島及帛琉戰事</t>
+    <t>马里亚纳群岛及帛琉战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E7%A3%BA%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>硫磺島戰役</t>
+    <t>硫磺岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>沖繩島戰役</t>
+    <t>冲绳岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A0%81</t>
@@ -437,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%E8%AD%BD%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>榮譽勳章</t>
+    <t>荣誉勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E7%95%BF%E9%81%93</t>
@@ -455,19 +452,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E7%99%BB%E9%99%B8%E6%88%B0</t>
   </si>
   <si>
-    <t>仁川登陸戰</t>
+    <t>仁川登陆战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1%E7%92%B0%E5%9E%8B%E9%98%B2%E7%A6%A6%E5%9C%88</t>
   </si>
   <si>
-    <t>釜山環型防禦圈</t>
+    <t>釜山环型防御圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E9%98%BF%E7%91%9F</t>
   </si>
   <si>
-    <t>麥克阿瑟</t>
+    <t>麦克阿瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E7%99%BB%E9%99%86</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%A8%E7%B6%A0%E6%B1%9F</t>
   </si>
   <si>
-    <t>鴨綠江</t>
+    <t>鸭绿江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E5%BF%97%E6%84%BF%E5%86%9B</t>
@@ -497,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/38%E5%BA%A6%E7%B7%9A</t>
   </si>
   <si>
-    <t>38度線</t>
+    <t>38度线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E5%8C%96</t>
   </si>
   <si>
-    <t>順化</t>
+    <t>顺化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%98%E6%B8%AF%E5%B8%82</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E5%8C%96%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>順化戰役</t>
+    <t>顺化战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AA%E7%94%9F%E6%88%98%E5%BD%B9</t>
@@ -527,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%8D%97%E6%96%B9%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>越南南方民族解放陣線</t>
+    <t>越南南方民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%BA%BA%E6%B0%91%E8%BB%8D</t>
   </si>
   <si>
-    <t>越南人民軍</t>
+    <t>越南人民军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%81%93</t>
@@ -545,43 +542,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%85%B1%E5%92%8C%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>越南共和國海軍陸戰師</t>
+    <t>越南共和国海军陆战师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%92%8C%E5%B9%B3%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>巴黎和平協約</t>
+    <t>巴黎和平协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%B2%A2%E9%99%B7%E8%90%BD</t>
   </si>
   <si>
-    <t>西貢陷落</t>
+    <t>西贡陷落</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E9%A2%A8%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>常風行動</t>
+    <t>常风行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E4%BD%BF%E9%A4%A8%E8%AD%A6%E8%A1%9B%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊使館警衛大隊</t>
+    <t>美国海军陆战队使馆警卫大队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E5%8D%97%E8%B6%8A%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國駐南越大使館</t>
+    <t>美国驻南越大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B1%B1%E4%B8%80%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>新山一空軍基地</t>
+    <t>新山一空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -599,25 +596,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E5%8D%81%E5%AD%97%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>海軍十字勳章</t>
+    <t>海军十字勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%A8%AE%E5%B0%8D%E7%AB%8B</t>
   </si>
   <si>
-    <t>軍種對立</t>
+    <t>军种对立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
@@ -647,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%AE%98</t>
   </si>
   <si>
-    <t>軍官</t>
+    <t>军官</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Aviation</t>
@@ -665,37 +659,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>航空母艦</t>
+    <t>航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%8B%99%E5%85%B5</t>
   </si>
   <si>
-    <t>醫務兵</t>
+    <t>医务兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>上將</t>
+    <t>上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B0%87</t>
   </si>
   <si>
-    <t>中將</t>
+    <t>中将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B0%87</t>
   </si>
   <si>
-    <t>少將</t>
+    <t>少将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%B0%87</t>
   </si>
   <si>
-    <t>准將</t>
+    <t>准将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%A0%A1</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%BA%A7%E5%87%86%E5%B0%89</t>
@@ -749,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%AE%98%E9%95%B7</t>
   </si>
   <si>
-    <t>士官長</t>
+    <t>士官长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Master_Gunnery_Sergeant</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC1%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國第1海軍陸戰師</t>
+    <t>美国第1海军陆战师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%94%B2%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>金甲部隊</t>
+    <t>金甲部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%85%E7%9B%96%E5%A4%B4</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%95%B0%E6%88%B0</t>
   </si>
   <si>
-    <t>世界異戰</t>
+    <t>世界异战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operation_Moshtarak</t>
@@ -869,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%AE%98%E8%88%87%E9%AD%94%E9%AC%BC</t>
   </si>
   <si>
-    <t>軍官與魔鬼</t>
+    <t>军官与魔鬼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E9%81%8B%E7%AC%A6</t>
   </si>
   <si>
-    <t>幸運符</t>
+    <t>幸运符</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E4%B9%8B%E6%88%98</t>
@@ -887,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E7%A3%BA%E5%B3%B6%E7%9A%84%E8%8B%B1%E9%9B%84%E5%80%91</t>
   </si>
   <si>
-    <t>硫磺島的英雄們</t>
+    <t>硫磺岛的英雄们</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E6%88%AE%E4%B8%80%E4%BB%A3</t>
@@ -917,37 +911,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%8B%9D%E6%99%82%E5%88%BB4%EF%BC%9A%E7%8F%BE%E4%BB%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>決勝時刻4：現代戰爭</t>
+    <t>决胜时刻4：现代战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%8B%9D%E6%99%82%E5%88%BB%EF%BC%9A%E6%88%B0%E7%88%AD%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>決勝時刻：戰爭世界</t>
+    <t>决胜时刻：战争世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E9%A2%A8%E9%9B%B23</t>
   </si>
   <si>
-    <t>戰地風雲3</t>
+    <t>战地风云3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%8C%E5%8B%952</t>
   </si>
   <si>
-    <t>武裝行動2</t>
+    <t>武装行动2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E9%A2%A8%E9%9B%B24</t>
   </si>
   <si>
-    <t>戰地風雲4</t>
+    <t>战地风云4</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E6%8A%80%E8%83%BD%E7%AB%A0</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊技能章</t>
+    <t>美国海军陆战队技能章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Leatherneck_Magazine</t>
@@ -959,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E4%BB%BB%E5%8B%99%E9%80%A3</t>
   </si>
   <si>
-    <t>特別任務連</t>
+    <t>特别任务连</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Washington_Post</t>
@@ -971,15 +965,12 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>Template talk-美國海軍陸戰隊</t>
+    <t>Template talk-美国海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Under_Secretary_of_the_Navy</t>
   </si>
   <si>
@@ -1127,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E6%AD%A6%E8%A3%9D%E5%81%B5%E5%AF%9F%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊武裝偵察部隊</t>
+    <t>美国海军陆战队武装侦察部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Reconnaissance_Battalions</t>
@@ -1199,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>海軍陸戰隊大學</t>
+    <t>海军陆战队大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Uniforms_of_the_United_States_Marine_Corps</t>
@@ -1217,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E5%BE%BD%E7%AB%A0</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊徽章</t>
+    <t>美国海军陆战队徽章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_weapons_of_the_United_States_Marine_Corps</t>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>海軍陸戰隊一號</t>
+    <t>海军陆战队一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%9E%AA%E5%85%B5%E7%9A%84%E4%BF%A1%E6%9D%A1</t>
@@ -1289,15 +1280,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E7%84%A1%E8%81%B2%E6%93%8D%E6%A7%8D%E6%8E%92</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊無聲操槍排</t>
+    <t>美国海军陆战队无声操枪排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>美国军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -1319,13 +1307,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議</t>
+    <t>美国参谋长联席会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議主席</t>
+    <t>美国参谋长联席会议主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8E%B0%E5%BD%B9%E4%B8%8A%E5%B0%86%E5%88%97%E8%A1%A8</t>
@@ -1343,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1947年國家安全法案</t>
+    <t>1947年国家安全法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%BE%B7%E5%8D%8E%E7%89%B9%EF%BC%8D%E5%B0%BC%E7%A7%91%E5%B0%94%E6%96%AF%E5%9B%BD%E9%98%B2%E9%83%A8%E9%87%8D%E6%9E%84%E6%B3%95%E6%A1%88</t>
@@ -1355,15 +1343,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國軍隊結構</t>
+    <t>美国军队结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
   </si>
   <si>
@@ -1373,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
@@ -1445,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國太平洋司令部</t>
+    <t>美国太平洋司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E6%96%B9%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -1487,13 +1472,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8%E7%AC%AC10%E5%8D%B7</t>
   </si>
   <si>
-    <t>美國法典第10卷</t>
+    <t>美国法典第10卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B5%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>新兵訓練</t>
+    <t>新兵训练</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Recruit_Training_Command,_Great_Lakes,_Illinois</t>
@@ -1655,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E7%BC%BA%E4%BA%BA%E6%89%8D%E5%BE%81%E5%85%B5%E8%AE%A1%E5%88%92</t>
@@ -1685,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1709,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -1757,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -1769,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -1793,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -1829,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -1865,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -1889,7 +1874,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -1931,13 +1916,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1949,13 +1934,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -1973,9 +1958,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -1985,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -2027,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -2039,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -2075,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -2087,13 +2069,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -2105,13 +2087,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -2123,13 +2105,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -2177,7 +2159,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -2189,13 +2171,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -2207,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -2219,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -2231,13 +2213,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -2261,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -2333,15 +2315,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -2351,7 +2330,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -2405,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -2441,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -2459,7 +2438,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -2495,19 +2474,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -2519,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -4033,7 +4012,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G40" t="n">
         <v>14</v>
@@ -4059,10 +4038,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4088,10 +4067,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4117,10 +4096,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4146,10 +4125,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>7</v>
@@ -4175,10 +4154,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4204,10 +4183,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4233,10 +4212,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4262,10 +4241,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4291,10 +4270,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4320,10 +4299,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4349,10 +4328,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4378,10 +4357,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4407,10 +4386,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4436,10 +4415,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4465,10 +4444,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4494,10 +4473,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4523,10 +4502,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4552,10 +4531,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4581,10 +4560,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4610,10 +4589,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4639,10 +4618,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4668,10 +4647,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4697,10 +4676,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4726,10 +4705,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4755,10 +4734,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -4784,10 +4763,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4813,10 +4792,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4842,10 +4821,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" t="s">
         <v>111</v>
-      </c>
-      <c r="F68" t="s">
-        <v>112</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4871,10 +4850,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4900,10 +4879,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>8</v>
@@ -4929,10 +4908,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4958,10 +4937,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4987,10 +4966,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5016,10 +4995,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5045,10 +5024,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5074,10 +5053,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5103,10 +5082,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5132,10 +5111,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5161,10 +5140,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5190,10 +5169,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5219,10 +5198,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5248,10 +5227,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5277,10 +5256,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5306,10 +5285,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5335,10 +5314,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5364,10 +5343,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5393,10 +5372,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5422,10 +5401,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5451,10 +5430,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5480,10 +5459,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5509,10 +5488,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5538,10 +5517,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5567,10 +5546,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5596,10 +5575,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5625,10 +5604,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5654,10 +5633,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5683,10 +5662,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
@@ -5712,10 +5691,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5741,10 +5720,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5770,10 +5749,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5799,10 +5778,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5828,10 +5807,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5857,10 +5836,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5886,10 +5865,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5915,10 +5894,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5944,10 +5923,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6002,10 +5981,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>9</v>
@@ -6031,10 +6010,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -6060,10 +6039,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6089,10 +6068,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6118,10 +6097,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6176,10 +6155,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6205,10 +6184,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6234,10 +6213,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6263,10 +6242,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6292,10 +6271,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6321,10 +6300,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6350,10 +6329,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6379,10 +6358,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6408,10 +6387,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6437,10 +6416,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6466,10 +6445,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6495,10 +6474,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6524,10 +6503,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6553,10 +6532,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6582,10 +6561,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>6</v>
@@ -6611,10 +6590,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6640,10 +6619,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6669,10 +6648,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6698,10 +6677,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6727,10 +6706,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6756,10 +6735,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6785,10 +6764,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6814,10 +6793,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6843,10 +6822,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6872,10 +6851,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6901,10 +6880,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6930,10 +6909,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6959,10 +6938,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6988,10 +6967,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7017,10 +6996,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7046,10 +7025,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7075,10 +7054,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7104,10 +7083,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7133,10 +7112,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7162,10 +7141,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7191,10 +7170,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7220,10 +7199,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7249,10 +7228,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7278,10 +7257,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7307,10 +7286,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7336,10 +7315,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7365,10 +7344,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7394,10 +7373,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7423,10 +7402,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7452,10 +7431,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7481,10 +7460,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7510,10 +7489,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7539,10 +7518,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7568,10 +7547,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7597,10 +7576,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7626,10 +7605,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -7655,10 +7634,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>16</v>
@@ -7684,10 +7663,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>132</v>
+      </c>
+      <c r="F166" t="s">
         <v>133</v>
-      </c>
-      <c r="F166" t="s">
-        <v>134</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7713,10 +7692,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7771,10 +7750,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7800,10 +7779,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7829,10 +7808,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7858,10 +7837,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7887,10 +7866,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7916,10 +7895,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7945,10 +7924,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7974,10 +7953,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F176" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8003,10 +7982,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8032,10 +8011,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8061,10 +8040,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8090,10 +8069,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8119,10 +8098,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8148,10 +8127,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8177,10 +8156,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8206,10 +8185,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8235,10 +8214,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8264,10 +8243,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8293,10 +8272,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8322,10 +8301,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8351,10 +8330,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8380,10 +8359,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8409,10 +8388,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8438,10 +8417,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8467,10 +8446,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8496,10 +8475,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8525,10 +8504,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8554,10 +8533,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8583,10 +8562,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8612,10 +8591,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8641,10 +8620,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8670,10 +8649,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8699,10 +8678,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8728,10 +8707,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8757,10 +8736,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8786,10 +8765,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8815,10 +8794,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8844,10 +8823,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8873,10 +8852,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8902,10 +8881,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -8931,10 +8910,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8960,10 +8939,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8989,10 +8968,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9018,10 +8997,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9047,10 +9026,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9076,10 +9055,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9105,10 +9084,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9134,10 +9113,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9163,10 +9142,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9192,10 +9171,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9221,10 +9200,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>110</v>
+      </c>
+      <c r="F219" t="s">
         <v>111</v>
-      </c>
-      <c r="F219" t="s">
-        <v>112</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9250,10 +9229,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9279,10 +9258,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9308,10 +9287,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9337,10 +9316,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9366,10 +9345,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9395,10 +9374,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9424,10 +9403,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9453,10 +9432,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9482,10 +9461,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9511,10 +9490,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9540,10 +9519,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9569,10 +9548,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9598,10 +9577,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9627,10 +9606,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>66</v>
       </c>
       <c r="G233" t="n">
         <v>5</v>
@@ -9656,10 +9635,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F234" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G234" t="n">
         <v>9</v>
@@ -9685,10 +9664,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9743,10 +9722,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9772,10 +9751,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9801,10 +9780,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>80</v>
+      </c>
+      <c r="F239" t="s">
         <v>81</v>
-      </c>
-      <c r="F239" t="s">
-        <v>82</v>
       </c>
       <c r="G239" t="n">
         <v>6</v>
@@ -9859,10 +9838,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9891,7 +9870,7 @@
         <v>77</v>
       </c>
       <c r="F242" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G242" t="n">
         <v>35</v>
@@ -9917,10 +9896,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9946,10 +9925,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>78</v>
+      </c>
+      <c r="F244" t="s">
         <v>79</v>
-      </c>
-      <c r="F244" t="s">
-        <v>80</v>
       </c>
       <c r="G244" t="n">
         <v>8</v>
@@ -9975,10 +9954,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10004,10 +9983,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10033,10 +10012,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G247" t="n">
         <v>83</v>
@@ -10062,10 +10041,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G248" t="n">
         <v>39</v>
@@ -10091,10 +10070,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10120,10 +10099,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10149,10 +10128,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10178,10 +10157,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10207,10 +10186,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G253" t="n">
         <v>6</v>
@@ -10236,10 +10215,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G254" t="n">
         <v>4</v>
@@ -10265,10 +10244,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10294,10 +10273,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10323,10 +10302,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10352,10 +10331,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10381,10 +10360,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10410,10 +10389,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10439,10 +10418,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G261" t="n">
         <v>43</v>
@@ -10468,10 +10447,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10497,10 +10476,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10526,10 +10505,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10555,10 +10534,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10584,10 +10563,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10613,10 +10592,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10642,10 +10621,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10671,10 +10650,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10700,10 +10679,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10729,10 +10708,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G271" t="n">
         <v>233</v>
@@ -10758,10 +10737,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10787,10 +10766,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10816,10 +10795,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G274" t="n">
         <v>18</v>
@@ -10845,10 +10824,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10874,10 +10853,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10903,10 +10882,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10932,10 +10911,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10961,10 +10940,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10990,10 +10969,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11019,10 +10998,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11048,10 +11027,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11077,10 +11056,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11106,10 +11085,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11135,10 +11114,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11164,10 +11143,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F286" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11193,10 +11172,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F287" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11222,10 +11201,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11251,10 +11230,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11280,10 +11259,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11309,10 +11288,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11338,10 +11317,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G292" t="n">
         <v>8</v>
@@ -11367,10 +11346,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11396,10 +11375,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11425,10 +11404,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11454,10 +11433,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11483,10 +11462,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11512,10 +11491,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11541,10 +11520,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11570,10 +11549,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11599,10 +11578,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11628,10 +11607,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11657,10 +11636,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -11686,10 +11665,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11715,10 +11694,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11744,10 +11723,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11773,10 +11752,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11802,10 +11781,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11831,10 +11810,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11860,10 +11839,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11889,10 +11868,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11918,10 +11897,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F312" t="s">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="G312" t="n">
         <v>16</v>
@@ -11947,10 +11926,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11976,10 +11955,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12005,10 +11984,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F315" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12034,10 +12013,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F316" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12063,10 +12042,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F317" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12092,10 +12071,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F318" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12121,10 +12100,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F319" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12150,10 +12129,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F320" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12179,10 +12158,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F321" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12208,10 +12187,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F322" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -12237,10 +12216,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F323" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12266,10 +12245,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F324" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12295,10 +12274,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F325" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12324,10 +12303,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F326" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G326" t="n">
         <v>5</v>
@@ -12353,10 +12332,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F327" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12382,10 +12361,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F328" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12411,10 +12390,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F329" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12440,10 +12419,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F330" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12469,10 +12448,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F331" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12498,10 +12477,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F332" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12527,10 +12506,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F333" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12556,10 +12535,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F334" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12585,10 +12564,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12614,10 +12593,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F336" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12643,10 +12622,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G337" t="n">
         <v>3</v>
@@ -12672,10 +12651,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12701,10 +12680,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F339" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12730,10 +12709,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F340" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12759,10 +12738,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F341" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12788,10 +12767,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F342" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12817,10 +12796,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F343" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12846,10 +12825,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F344" t="s">
-        <v>652</v>
+        <v>457</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12875,10 +12854,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F345" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G345" t="n">
         <v>4</v>
@@ -12904,10 +12883,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F346" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12933,10 +12912,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F347" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12962,10 +12941,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F348" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12991,10 +12970,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F349" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13020,10 +12999,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F350" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13049,10 +13028,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F351" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13078,10 +13057,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F352" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13107,10 +13086,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13136,10 +13115,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13165,10 +13144,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13194,10 +13173,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13223,10 +13202,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13252,10 +13231,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -13281,10 +13260,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13310,10 +13289,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13339,10 +13318,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13368,10 +13347,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13397,10 +13376,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13426,10 +13405,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F364" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13455,10 +13434,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F365" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13484,10 +13463,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F366" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13513,10 +13492,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F367" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13542,10 +13521,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F368" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13571,10 +13550,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F369" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13600,10 +13579,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F370" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13629,10 +13608,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F371" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13658,10 +13637,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F372" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13687,10 +13666,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13716,10 +13695,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F374" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13745,10 +13724,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F375" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13774,10 +13753,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -13803,10 +13782,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F377" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13832,10 +13811,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F378" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13861,10 +13840,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F379" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13890,10 +13869,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F380" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13919,10 +13898,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F381" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13948,10 +13927,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F382" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13977,10 +13956,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F383" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14006,10 +13985,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F384" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14035,10 +14014,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F385" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14064,10 +14043,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F386" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14093,10 +14072,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F387" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14122,10 +14101,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F388" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14151,10 +14130,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F389" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14180,10 +14159,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F390" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14209,10 +14188,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F391" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14238,10 +14217,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F392" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -14267,10 +14246,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F393" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14296,10 +14275,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F394" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14325,10 +14304,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F395" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14354,10 +14333,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F396" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14383,10 +14362,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F397" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14412,10 +14391,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F398" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14441,10 +14420,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F399" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14470,10 +14449,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F400" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G400" t="n">
         <v>6</v>
@@ -14499,10 +14478,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F401" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -14528,10 +14507,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F402" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14557,10 +14536,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F403" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14586,10 +14565,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F404" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14615,10 +14594,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F405" t="s">
-        <v>774</v>
+        <v>714</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14644,10 +14623,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14673,10 +14652,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14702,10 +14681,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14731,10 +14710,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F409" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14760,10 +14739,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F410" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -14789,10 +14768,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F411" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14818,10 +14797,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F412" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14847,10 +14826,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F413" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14876,10 +14855,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F414" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14905,10 +14884,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F415" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14934,10 +14913,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F416" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14963,10 +14942,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F417" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14992,10 +14971,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F418" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G418" t="n">
         <v>4</v>
@@ -15021,10 +15000,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F419" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15050,10 +15029,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F420" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15079,10 +15058,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F421" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15108,10 +15087,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F422" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -15137,10 +15116,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F423" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G423" t="n">
         <v>3</v>
@@ -15166,10 +15145,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F424" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15195,10 +15174,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F425" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15224,10 +15203,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F426" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15253,10 +15232,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15282,10 +15261,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15311,10 +15290,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F429" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15340,10 +15319,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F430" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15369,10 +15348,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F431" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15398,10 +15377,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F432" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15427,10 +15406,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F433" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15456,10 +15435,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F434" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15485,10 +15464,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F435" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15514,10 +15493,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F436" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15543,10 +15522,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F437" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
